--- a/excel/fr.xlsx
+++ b/excel/fr.xlsx
@@ -31,7 +31,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="965">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
   <si>
     <t>tk.uiaas.orderStatus.details.commercial.totalListPrice</t>
   </si>
@@ -3306,7 +3312,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B593"/>
+  <dimension ref="A1:B594"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3532,23 +3538,23 @@
         <v>54</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -3572,15 +3578,15 @@
         <v>62</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35">
@@ -3692,12 +3698,12 @@
         <v>91</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>29</v>
@@ -3705,10 +3711,10 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
@@ -3748,15 +3754,15 @@
         <v>103</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57">
@@ -3804,15 +3810,15 @@
         <v>116</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64">
@@ -3820,15 +3826,15 @@
         <v>119</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
@@ -3844,15 +3850,15 @@
         <v>124</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69">
@@ -3860,15 +3866,15 @@
         <v>127</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
@@ -3876,15 +3882,15 @@
         <v>130</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
@@ -4036,15 +4042,15 @@
         <v>169</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93">
@@ -4548,15 +4554,15 @@
         <v>296</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="157">
@@ -4692,15 +4698,15 @@
         <v>331</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>61</v>
+        <v>332</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>333</v>
+        <v>63</v>
       </c>
     </row>
     <row r="175">
@@ -4748,23 +4754,23 @@
         <v>344</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>102</v>
+        <v>345</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>181</v>
+        <v>104</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>347</v>
+        <v>183</v>
       </c>
     </row>
     <row r="183">
@@ -4812,23 +4818,23 @@
         <v>358</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>43</v>
+        <v>359</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>361</v>
+        <v>92</v>
       </c>
     </row>
     <row r="191">
@@ -4844,15 +4850,15 @@
         <v>364</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>76</v>
+        <v>365</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>366</v>
+        <v>78</v>
       </c>
     </row>
     <row r="194">
@@ -4860,23 +4866,23 @@
         <v>367</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>80</v>
+        <v>368</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>370</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197">
@@ -4884,15 +4890,15 @@
         <v>371</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>132</v>
+        <v>372</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>373</v>
+        <v>134</v>
       </c>
     </row>
     <row r="199">
@@ -4932,12 +4938,12 @@
         <v>382</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>298</v>
+        <v>383</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>300</v>
@@ -4945,10 +4951,10 @@
     </row>
     <row r="205">
       <c r="A205" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>385</v>
+        <v>302</v>
       </c>
     </row>
     <row r="206">
@@ -4972,15 +4978,15 @@
         <v>390</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>293</v>
+        <v>391</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>392</v>
+        <v>295</v>
       </c>
     </row>
     <row r="210">
@@ -5004,23 +5010,23 @@
         <v>397</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>253</v>
+        <v>398</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>400</v>
+        <v>261</v>
       </c>
     </row>
     <row r="215">
@@ -5028,12 +5034,12 @@
         <v>401</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>308</v>
+        <v>402</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>310</v>
@@ -5041,15 +5047,15 @@
     </row>
     <row r="217">
       <c r="A217" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>306</v>
@@ -5057,15 +5063,15 @@
     </row>
     <row r="219">
       <c r="A219" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>318</v>
@@ -5073,10 +5079,10 @@
     </row>
     <row r="221">
       <c r="A221" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>408</v>
+        <v>320</v>
       </c>
     </row>
     <row r="222">
@@ -5084,15 +5090,15 @@
         <v>409</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>314</v>
+        <v>410</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>411</v>
+        <v>316</v>
       </c>
     </row>
     <row r="224">
@@ -5172,12 +5178,12 @@
         <v>430</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>257</v>
@@ -5185,10 +5191,10 @@
     </row>
     <row r="235">
       <c r="A235" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>433</v>
+        <v>259</v>
       </c>
     </row>
     <row r="236">
@@ -5228,15 +5234,15 @@
         <v>442</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>197</v>
+        <v>443</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>444</v>
+        <v>199</v>
       </c>
     </row>
     <row r="242">
@@ -5244,31 +5250,31 @@
         <v>445</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>66</v>
+        <v>446</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>449</v>
+        <v>45</v>
       </c>
     </row>
     <row r="246">
@@ -5292,15 +5298,15 @@
         <v>454</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>166</v>
+        <v>455</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>456</v>
+        <v>168</v>
       </c>
     </row>
     <row r="250">
@@ -5316,15 +5322,15 @@
         <v>459</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>201</v>
+        <v>460</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>461</v>
+        <v>203</v>
       </c>
     </row>
     <row r="253">
@@ -5340,20 +5346,20 @@
         <v>464</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>247</v>
+        <v>465</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>351</v>
+        <v>249</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>353</v>
@@ -5361,10 +5367,10 @@
     </row>
     <row r="257">
       <c r="A257" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>468</v>
+        <v>355</v>
       </c>
     </row>
     <row r="258">
@@ -5380,15 +5386,15 @@
         <v>471</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>357</v>
+        <v>472</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>473</v>
+        <v>359</v>
       </c>
     </row>
     <row r="261">
@@ -5396,31 +5402,31 @@
         <v>474</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>251</v>
+        <v>475</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>129</v>
+        <v>253</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>478</v>
+        <v>63</v>
       </c>
     </row>
     <row r="265">
@@ -5428,15 +5434,15 @@
         <v>479</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>333</v>
+        <v>480</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>481</v>
+        <v>335</v>
       </c>
     </row>
     <row r="267">
@@ -5444,23 +5450,23 @@
         <v>482</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>335</v>
+        <v>483</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>485</v>
+        <v>341</v>
       </c>
     </row>
     <row r="270">
@@ -5476,15 +5482,15 @@
         <v>488</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>123</v>
+        <v>489</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>490</v>
+        <v>125</v>
       </c>
     </row>
     <row r="273">
@@ -5492,23 +5498,23 @@
         <v>491</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>324</v>
+        <v>492</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>23</v>
+        <v>326</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>494</v>
+        <v>25</v>
       </c>
     </row>
     <row r="276">
@@ -5524,20 +5530,20 @@
         <v>497</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>129</v>
+        <v>498</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>146</v>
@@ -5545,10 +5551,10 @@
     </row>
     <row r="280">
       <c r="A280" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>501</v>
+        <v>148</v>
       </c>
     </row>
     <row r="281">
@@ -5556,15 +5562,15 @@
         <v>502</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>461</v>
+        <v>503</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>504</v>
+        <v>463</v>
       </c>
     </row>
     <row r="283">
@@ -5580,47 +5586,47 @@
         <v>507</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>51</v>
+        <v>508</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>237</v>
+        <v>53</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>363</v>
+        <v>239</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>90</v>
+        <v>365</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>513</v>
+        <v>120</v>
       </c>
     </row>
     <row r="290">
@@ -5636,12 +5642,12 @@
         <v>516</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>221</v>
+        <v>517</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>223</v>
@@ -5649,15 +5655,15 @@
     </row>
     <row r="293">
       <c r="A293" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>243</v>
@@ -5665,7 +5671,7 @@
     </row>
     <row r="295">
       <c r="A295" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>245</v>
@@ -5673,26 +5679,26 @@
     </row>
     <row r="296">
       <c r="A296" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>524</v>
+        <v>241</v>
       </c>
     </row>
     <row r="299">
@@ -5700,20 +5706,20 @@
         <v>525</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>217</v>
+        <v>526</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>229</v>
@@ -5721,7 +5727,7 @@
     </row>
     <row r="302">
       <c r="A302" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>231</v>
@@ -5729,26 +5735,26 @@
     </row>
     <row r="303">
       <c r="A303" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>532</v>
+        <v>235</v>
       </c>
     </row>
     <row r="306">
@@ -5756,23 +5762,23 @@
         <v>533</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>235</v>
+        <v>534</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>536</v>
+        <v>227</v>
       </c>
     </row>
     <row r="309">
@@ -5796,15 +5802,15 @@
         <v>541</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>21</v>
+        <v>542</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>543</v>
+        <v>23</v>
       </c>
     </row>
     <row r="313">
@@ -5812,23 +5818,23 @@
         <v>544</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>19</v>
+        <v>545</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>547</v>
+        <v>109</v>
       </c>
     </row>
     <row r="316">
@@ -5868,15 +5874,15 @@
         <v>556</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>347</v>
+        <v>557</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>558</v>
+        <v>349</v>
       </c>
     </row>
     <row r="322">
@@ -5884,15 +5890,15 @@
         <v>559</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>223</v>
+        <v>560</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>561</v>
+        <v>225</v>
       </c>
     </row>
     <row r="324">
@@ -5964,15 +5970,15 @@
         <v>578</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>223</v>
+        <v>579</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>580</v>
+        <v>225</v>
       </c>
     </row>
     <row r="334">
@@ -6004,23 +6010,23 @@
         <v>587</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>17</v>
+        <v>588</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>590</v>
+        <v>27</v>
       </c>
     </row>
     <row r="340">
@@ -6036,23 +6042,23 @@
         <v>593</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>47</v>
+        <v>594</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>596</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344">
@@ -6092,15 +6098,15 @@
         <v>605</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>94</v>
+        <v>606</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>607</v>
+        <v>96</v>
       </c>
     </row>
     <row r="350">
@@ -6108,23 +6114,23 @@
         <v>608</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>100</v>
+        <v>609</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>611</v>
+        <v>100</v>
       </c>
     </row>
     <row r="353">
@@ -6140,47 +6146,47 @@
         <v>614</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>37</v>
+        <v>615</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>547</v>
+        <v>33</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>620</v>
+        <v>549</v>
       </c>
     </row>
     <row r="360">
@@ -6188,39 +6194,39 @@
         <v>621</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>41</v>
+        <v>622</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>626</v>
+        <v>117</v>
       </c>
     </row>
     <row r="365">
@@ -6228,28 +6234,28 @@
         <v>627</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>113</v>
+        <v>628</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="3" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>158</v>
@@ -6257,34 +6263,34 @@
     </row>
     <row r="369">
       <c r="A369" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>425</v>
+        <v>170</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>154</v>
+        <v>427</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>635</v>
+        <v>156</v>
       </c>
     </row>
     <row r="373">
@@ -6292,28 +6298,28 @@
         <v>636</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>152</v>
+        <v>637</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="3" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>177</v>
@@ -6321,10 +6327,10 @@
     </row>
     <row r="377">
       <c r="A377" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>641</v>
+        <v>179</v>
       </c>
     </row>
     <row r="378">
@@ -6332,12 +6338,12 @@
         <v>642</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>171</v>
+        <v>643</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>173</v>
@@ -6345,23 +6351,23 @@
     </row>
     <row r="380">
       <c r="A380" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>86</v>
@@ -6369,10 +6375,10 @@
     </row>
     <row r="383">
       <c r="A383" s="3" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>648</v>
+        <v>88</v>
       </c>
     </row>
     <row r="384">
@@ -6388,23 +6394,23 @@
         <v>651</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>61</v>
+        <v>652</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>654</v>
+        <v>66</v>
       </c>
     </row>
     <row r="388">
@@ -6412,15 +6418,15 @@
         <v>655</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>191</v>
+        <v>656</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>657</v>
+        <v>193</v>
       </c>
     </row>
     <row r="390">
@@ -6428,12 +6434,12 @@
         <v>658</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>259</v>
+        <v>659</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>261</v>
@@ -6441,15 +6447,15 @@
     </row>
     <row r="392">
       <c r="A392" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>257</v>
@@ -6457,15 +6463,15 @@
     </row>
     <row r="394">
       <c r="A394" s="3" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>269</v>
@@ -6473,55 +6479,55 @@
     </row>
     <row r="396">
       <c r="A396" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="3" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="3" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>287</v>
@@ -6529,15 +6535,15 @@
     </row>
     <row r="403">
       <c r="A403" s="3" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="3" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>283</v>
@@ -6545,15 +6551,15 @@
     </row>
     <row r="405">
       <c r="A405" s="3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="3" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>295</v>
@@ -6561,31 +6567,31 @@
     </row>
     <row r="407">
       <c r="A407" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="3" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>318</v>
@@ -6593,18 +6599,18 @@
     </row>
     <row r="411">
       <c r="A411" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="3" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>681</v>
+        <v>314</v>
       </c>
     </row>
     <row r="413">
@@ -6612,12 +6618,12 @@
         <v>682</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>277</v>
+        <v>683</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>279</v>
@@ -6625,31 +6631,31 @@
     </row>
     <row r="415">
       <c r="A415" s="3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>187</v>
+        <v>275</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="3" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>185</v>
@@ -6657,15 +6663,15 @@
     </row>
     <row r="419">
       <c r="A419" s="3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>195</v>
@@ -6673,47 +6679,47 @@
     </row>
     <row r="421">
       <c r="A421" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>265</v>
+        <v>201</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="3" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>197</v>
+        <v>273</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="3" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>298</v>
+        <v>199</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="3" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>300</v>
@@ -6721,39 +6727,39 @@
     </row>
     <row r="427">
       <c r="A427" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="3" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>400</v>
+        <v>304</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>308</v>
+        <v>402</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>310</v>
@@ -6761,18 +6767,18 @@
     </row>
     <row r="432">
       <c r="A432" s="3" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="3" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>703</v>
+        <v>306</v>
       </c>
     </row>
     <row r="434">
@@ -6844,15 +6850,15 @@
         <v>720</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>96</v>
+        <v>721</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="3" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>722</v>
+        <v>98</v>
       </c>
     </row>
     <row r="444">
@@ -6876,15 +6882,15 @@
         <v>727</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="3" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
     </row>
     <row r="448">
@@ -6900,28 +6906,28 @@
         <v>732</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>78</v>
+        <v>733</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="3" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="3" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="3" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>86</v>
@@ -6929,10 +6935,10 @@
     </row>
     <row r="453">
       <c r="A453" s="3" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>737</v>
+        <v>88</v>
       </c>
     </row>
     <row r="454">
@@ -6964,23 +6970,23 @@
         <v>744</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>59</v>
+        <v>745</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="3" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="3" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>747</v>
+        <v>138</v>
       </c>
     </row>
     <row r="460">
@@ -6988,15 +6994,15 @@
         <v>748</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>82</v>
+        <v>749</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>750</v>
+        <v>84</v>
       </c>
     </row>
     <row r="462">
@@ -7012,20 +7018,20 @@
         <v>753</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>107</v>
+        <v>754</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="3" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="3" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>115</v>
@@ -7033,18 +7039,18 @@
     </row>
     <row r="466">
       <c r="A466" s="3" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="3" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>758</v>
+        <v>111</v>
       </c>
     </row>
     <row r="468">
@@ -7084,15 +7090,15 @@
         <v>767</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>626</v>
+        <v>768</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="3" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>769</v>
+        <v>628</v>
       </c>
     </row>
     <row r="474">
@@ -7108,20 +7114,20 @@
         <v>772</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>37</v>
+        <v>773</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="3" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="3" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>33</v>
@@ -7129,34 +7135,34 @@
     </row>
     <row r="478">
       <c r="A478" s="3" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="3" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>620</v>
+        <v>43</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="3" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>39</v>
+        <v>622</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="3" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>779</v>
+        <v>41</v>
       </c>
     </row>
     <row r="482">
@@ -7172,15 +7178,15 @@
         <v>782</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>722</v>
+        <v>783</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>784</v>
+        <v>724</v>
       </c>
     </row>
     <row r="485">
@@ -7212,15 +7218,15 @@
         <v>791</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>134</v>
+        <v>792</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="3" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>793</v>
+        <v>136</v>
       </c>
     </row>
     <row r="490">
@@ -7244,31 +7250,31 @@
         <v>798</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>592</v>
+        <v>799</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="3" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>25</v>
+        <v>594</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="3" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="3" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>802</v>
+        <v>19</v>
       </c>
     </row>
     <row r="496">
@@ -7284,15 +7290,15 @@
         <v>805</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>741</v>
+        <v>806</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="3" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>807</v>
+        <v>743</v>
       </c>
     </row>
     <row r="499">
@@ -7316,15 +7322,15 @@
         <v>812</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>138</v>
+        <v>813</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="3" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>814</v>
+        <v>140</v>
       </c>
     </row>
     <row r="503">
@@ -7332,31 +7338,31 @@
         <v>815</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>255</v>
+        <v>816</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="3" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="3" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>377</v>
+        <v>302</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="3" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>819</v>
+        <v>379</v>
       </c>
     </row>
     <row r="507">
@@ -7364,31 +7370,31 @@
         <v>820</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>444</v>
+        <v>821</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="3" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>281</v>
+        <v>446</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="3" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>35</v>
+        <v>283</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="3" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>824</v>
+        <v>37</v>
       </c>
     </row>
     <row r="511">
@@ -7412,39 +7418,39 @@
         <v>829</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>739</v>
+        <v>830</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="3" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="3" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>70</v>
+        <v>749</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="3" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="3" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>834</v>
+        <v>29</v>
       </c>
     </row>
     <row r="518">
@@ -7452,15 +7458,15 @@
         <v>835</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>580</v>
+        <v>836</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="3" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>837</v>
+        <v>582</v>
       </c>
     </row>
     <row r="520">
@@ -7476,31 +7482,31 @@
         <v>840</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>478</v>
+        <v>841</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="3" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="3" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>620</v>
+        <v>458</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="3" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>844</v>
+        <v>622</v>
       </c>
     </row>
     <row r="525">
@@ -7508,63 +7514,63 @@
         <v>845</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>819</v>
+        <v>846</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="3" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>635</v>
+        <v>821</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="3" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="3" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>524</v>
+        <v>652</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="3" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="3" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>400</v>
+        <v>534</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="3" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>302</v>
+        <v>402</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="3" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>853</v>
+        <v>304</v>
       </c>
     </row>
     <row r="533">
@@ -7588,15 +7594,15 @@
         <v>858</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>363</v>
+        <v>859</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="3" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>860</v>
+        <v>365</v>
       </c>
     </row>
     <row r="537">
@@ -7604,23 +7610,23 @@
         <v>861</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>707</v>
+        <v>862</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="3" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>456</v>
+        <v>709</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="3" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>864</v>
+        <v>458</v>
       </c>
     </row>
     <row r="540">
@@ -7644,23 +7650,23 @@
         <v>869</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>341</v>
+        <v>870</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="3" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>811</v>
+        <v>343</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="3" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>872</v>
+        <v>813</v>
       </c>
     </row>
     <row r="545">
@@ -7748,23 +7754,23 @@
         <v>893</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>392</v>
+        <v>894</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="3" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="3" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>896</v>
+        <v>419</v>
       </c>
     </row>
     <row r="558">
@@ -7852,15 +7858,15 @@
         <v>917</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>366</v>
+        <v>918</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="3" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>919</v>
+        <v>368</v>
       </c>
     </row>
     <row r="570">
@@ -7964,15 +7970,15 @@
         <v>944</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>197</v>
+        <v>945</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="3" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>946</v>
+        <v>199</v>
       </c>
     </row>
     <row r="584">
@@ -7988,23 +7994,23 @@
         <v>949</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>253</v>
+        <v>950</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="3" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>387</v>
+        <v>255</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="3" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>952</v>
+        <v>389</v>
       </c>
     </row>
     <row r="588">
@@ -8012,15 +8018,15 @@
         <v>953</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>419</v>
+        <v>954</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="3" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>955</v>
+        <v>421</v>
       </c>
     </row>
     <row r="590">
@@ -8052,12 +8058,20 @@
         <v>962</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>681</v>
+        <v>963</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="B594" s="3" t="s">
+        <v>683</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B593"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B594"/>
   </ignoredErrors>
 </worksheet>
 </file>